--- a/VPB/CSTC.xlsx
+++ b/VPB/CSTC.xlsx
@@ -1535,22 +1535,22 @@
         <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="AV7" t="n">
-        <v>1100</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
